--- a/participants_summary_table.xlsx
+++ b/participants_summary_table.xlsx
@@ -381,16 +381,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>59</v>
       </c>
       <c r="D2">
-        <v>23.6</v>
+        <v>23.69477911646586</v>
       </c>
     </row>
   </sheetData>
